--- a/Footprint.xlsx
+++ b/Footprint.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Astrazione</t>
   </si>
@@ -64,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -142,19 +149,19 @@
                   <c:v>Frequenza</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Localizzazione</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Delay</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Localizzazione</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ExtraFlow</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Condivisione</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>IntraFlow</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Condivisione</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -169,22 +176,22 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10.0</c:v>
@@ -201,11 +208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2094698040"/>
-        <c:axId val="-2094710776"/>
+        <c:axId val="2142754568"/>
+        <c:axId val="2142748328"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-2094698040"/>
+        <c:axId val="2142754568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -215,7 +222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094710776"/>
+        <c:crossAx val="2142748328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -223,9 +230,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094710776"/>
+        <c:axId val="2142748328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -234,12 +242,160 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094698040"/>
+        <c:crossAx val="2142754568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$23:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Astrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Complessità</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frequenza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Localizzazione</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Delay</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExtraFlow</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Condivisione</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IntraFlow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$23:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2147342824"/>
+        <c:axId val="2147003064"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="2147342824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2147003064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2147003064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2147342824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
@@ -278,6 +434,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -608,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,7 +812,7 @@
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -638,28 +824,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -670,23 +856,87 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Footprint.xlsx
+++ b/Footprint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Delay</t>
   </si>
   <si>
-    <t>Localizzazione</t>
-  </si>
-  <si>
     <t>ExtraFlow</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Condivisione</t>
+  </si>
+  <si>
+    <t>Locazione</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
                   <c:v>Frequenza</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Localizzazione</c:v>
+                  <c:v>Locazione</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Delay</c:v>
@@ -208,11 +208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2142754568"/>
-        <c:axId val="2142748328"/>
+        <c:axId val="2084687320"/>
+        <c:axId val="2084692040"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2142754568"/>
+        <c:axId val="2084687320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -222,7 +222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142748328"/>
+        <c:crossAx val="2084692040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -230,7 +230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142748328"/>
+        <c:axId val="2084692040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -242,7 +242,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142754568"/>
+        <c:crossAx val="2084687320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -297,7 +297,7 @@
                   <c:v>Frequenza</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Localizzazione</c:v>
+                  <c:v>Locazione</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Delay</c:v>
@@ -321,10 +321,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>90.0</c:v>
@@ -333,13 +333,13 @@
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80.0</c:v>
@@ -356,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2147342824"/>
-        <c:axId val="2147003064"/>
+        <c:axId val="2084612824"/>
+        <c:axId val="2084609864"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2147342824"/>
+        <c:axId val="2084612824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147003064"/>
+        <c:crossAx val="2084609864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -378,7 +378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2147003064"/>
+        <c:axId val="2084609864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -390,7 +390,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147342824"/>
+        <c:crossAx val="2084612824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -797,7 +797,7 @@
   <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -901,7 +901,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -912,28 +912,28 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>80</v>

--- a/Footprint.xlsx
+++ b/Footprint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>80.0</c:v>
@@ -208,11 +208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084687320"/>
-        <c:axId val="2084692040"/>
+        <c:axId val="2139934072"/>
+        <c:axId val="2139936424"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2084687320"/>
+        <c:axId val="2139934072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -222,7 +222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084692040"/>
+        <c:crossAx val="2139936424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -230,7 +230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084692040"/>
+        <c:axId val="2139936424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -242,7 +242,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084687320"/>
+        <c:crossAx val="2139934072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -356,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084612824"/>
-        <c:axId val="2084609864"/>
+        <c:axId val="2139998696"/>
+        <c:axId val="2140001640"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2084612824"/>
+        <c:axId val="2139998696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084609864"/>
+        <c:crossAx val="2140001640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -378,7 +378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084609864"/>
+        <c:axId val="2140001640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -390,7 +390,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084612824"/>
+        <c:crossAx val="2139998696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -797,7 +797,7 @@
   <dimension ref="A2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
